--- a/testdata/hpdata.xlsx
+++ b/testdata/hpdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Login_ID</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>asdf1234</t>
+  </si>
+  <si>
+    <t>createnewpaymentrequest_ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Payment 1</t>
+  </si>
+  <si>
+    <t>This is Test</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -408,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -424,7 +442,7 @@
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -443,8 +461,17 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -466,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -480,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -492,6 +519,20 @@
       </c>
       <c r="D5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/hpdata.xlsx
+++ b/testdata/hpdata.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{420DCFB0-7B97-47C5-8205-B019B8198F48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010"/>
+    <workbookView xWindow="2260" yWindow="2260" windowWidth="14378" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -60,9 +62,6 @@
     <t>TasksName</t>
   </si>
   <si>
-    <t>apoorvchandra@gmail.com</t>
-  </si>
-  <si>
     <t>asdf1234</t>
   </si>
   <si>
@@ -82,13 +81,16 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>sidisalwaysgr8@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +139,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -184,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +222,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +274,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,24 +467,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -462,27 +504,27 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -493,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -507,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -521,15 +563,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
       </c>
       <c r="I6">
         <v>500</v>
@@ -541,24 +583,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
